--- a/RNN_python/schd_sam_output_data/anom_data7.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data7.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43152</v>
+        <v>43213</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.448162407538206</v>
+        <v>1.688448074935607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43152.04166666666</v>
+        <v>43213.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>2.816395974186349</v>
+        <v>0.1066994932223793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43152.08333333334</v>
+        <v>43213.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>15.88824434076838</v>
+        <v>3.9404328979018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43152.125</v>
+        <v>43213.125</v>
       </c>
       <c r="D5" t="n">
-        <v>23.47173908471271</v>
+        <v>6.807589874043316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43152.16666666666</v>
+        <v>43213.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>40.22247599964453</v>
+        <v>6.885001423892177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43152.20833333334</v>
+        <v>43213.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>16.7928026069018</v>
+        <v>1.664058529960855</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43152.25</v>
+        <v>43213.25</v>
       </c>
       <c r="D8" t="n">
-        <v>16.46865852735246</v>
+        <v>-1.169638588178316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43152.29166666666</v>
+        <v>43213.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>49.5870755039558</v>
+        <v>11.66441417952166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43152.33333333334</v>
+        <v>43213.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>459.1823860248571</v>
+        <v>331.0089790331842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43152.375</v>
+        <v>43213.375</v>
       </c>
       <c r="D11" t="n">
-        <v>438.2413026622029</v>
+        <v>353.0348163077983</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43152.41666666666</v>
+        <v>43213.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>456.1514279214265</v>
+        <v>321.7305034039841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43152.45833333334</v>
+        <v>43213.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>343.8593152809125</v>
+        <v>224.0101979734653</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43152.5</v>
+        <v>43213.5</v>
       </c>
       <c r="D14" t="n">
-        <v>325.9581053597001</v>
+        <v>198.6869663766817</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43152.54166666666</v>
+        <v>43213.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>283.9496196682469</v>
+        <v>171.8275181593656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43152.58333333334</v>
+        <v>43213.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>237.3831399020034</v>
+        <v>141.7435195419273</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43152.625</v>
+        <v>43213.625</v>
       </c>
       <c r="D17" t="n">
-        <v>189.6293838437071</v>
+        <v>113.8130582150656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43152.66666666666</v>
+        <v>43213.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>157.5248664340948</v>
+        <v>87.58144685510347</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43152.70833333334</v>
+        <v>43213.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>123.3137518772744</v>
+        <v>65.03889488148603</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43152.75</v>
+        <v>43213.75</v>
       </c>
       <c r="D20" t="n">
-        <v>88.30234815155643</v>
+        <v>46.70632382893276</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43152.79166666666</v>
+        <v>43213.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>62.41621938584753</v>
+        <v>32.46500153203124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43152.83333333334</v>
+        <v>43213.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>45.88135839214586</v>
+        <v>21.78248907071504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43152.875</v>
+        <v>43213.875</v>
       </c>
       <c r="D23" t="n">
-        <v>36.57544235758435</v>
+        <v>14.02925476680889</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43152.91666666666</v>
+        <v>43213.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>31.84252604903389</v>
+        <v>8.653250650403479</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43152.95833333334</v>
+        <v>43213.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>34.80719696336139</v>
+        <v>-3.197629252829032</v>
       </c>
     </row>
   </sheetData>
@@ -709,231 +709,231 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43152</v>
+        <v>43213</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43152.04166666666</v>
+        <v>43213.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43152.08333333334</v>
+        <v>43213.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43152.125</v>
+        <v>43213.125</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43152.16666666666</v>
+        <v>43213.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43152.20833333334</v>
+        <v>43213.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43152.25</v>
+        <v>43213.25</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43152.29166666666</v>
+        <v>43213.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43152.33333333334</v>
+        <v>43213.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>470</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43152.375</v>
+        <v>43213.375</v>
       </c>
       <c r="D11" t="n">
-        <v>344</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43152.41666666666</v>
+        <v>43213.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>408</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43152.45833333334</v>
+        <v>43213.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>279</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43152.5</v>
+        <v>43213.5</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43152.54166666666</v>
+        <v>43213.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43152.58333333334</v>
+        <v>43213.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43152.625</v>
+        <v>43213.625</v>
       </c>
       <c r="D17" t="n">
-        <v>116</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43152.66666666666</v>
+        <v>43213.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43152.70833333334</v>
+        <v>43213.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43152.75</v>
+        <v>43213.75</v>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43152.79166666666</v>
+        <v>43213.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43152.83333333334</v>
+        <v>43213.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43152.875</v>
+        <v>43213.875</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43152.91666666666</v>
+        <v>43213.91666666666</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
@@ -943,10 +943,10 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43152.95833333334</v>
+        <v>43213.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data7.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data7.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43213</v>
+        <v>43287</v>
       </c>
       <c r="D2" t="n">
-        <v>1.688448074935607</v>
+        <v>8.808719658131565</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43213.04166666666</v>
+        <v>43287.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1066994932223793</v>
+        <v>4.935671021155514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43213.08333333334</v>
+        <v>43287.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3.9404328979018</v>
+        <v>6.087740589343184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43213.125</v>
+        <v>43287.125</v>
       </c>
       <c r="D5" t="n">
-        <v>6.807589874043316</v>
+        <v>7.451962512224583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43213.16666666666</v>
+        <v>43287.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>6.885001423892177</v>
+        <v>6.764057865927597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43213.20833333334</v>
+        <v>43287.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>1.664058529960855</v>
+        <v>3.829314729235108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43213.25</v>
+        <v>43287.25</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.169638588178316</v>
+        <v>13.44739993165085</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43213.29166666666</v>
+        <v>43287.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>11.66441417952166</v>
+        <v>44.9444834823848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43213.33333333334</v>
+        <v>43287.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>331.0089790331842</v>
+        <v>467.9376654862347</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43213.375</v>
+        <v>43287.375</v>
       </c>
       <c r="D11" t="n">
-        <v>353.0348163077983</v>
+        <v>404.8808621197903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43213.41666666666</v>
+        <v>43287.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>321.7305034039841</v>
+        <v>414.2621866516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43213.45833333334</v>
+        <v>43287.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>224.0101979734653</v>
+        <v>225.5693526246086</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43213.5</v>
+        <v>43287.5</v>
       </c>
       <c r="D14" t="n">
-        <v>198.6869663766817</v>
+        <v>255.3776830734978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43213.54166666666</v>
+        <v>43287.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>171.8275181593656</v>
+        <v>180.362179753501</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43213.58333333334</v>
+        <v>43287.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>141.7435195419273</v>
+        <v>156.5740859007253</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43213.625</v>
+        <v>43287.625</v>
       </c>
       <c r="D17" t="n">
-        <v>113.8130582150656</v>
+        <v>107.4721550398328</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43213.66666666666</v>
+        <v>43287.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>87.58144685510347</v>
+        <v>83.91580646063336</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43213.70833333334</v>
+        <v>43287.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>65.03889488148603</v>
+        <v>57.8601636027086</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43213.75</v>
+        <v>43287.75</v>
       </c>
       <c r="D20" t="n">
-        <v>46.70632382893276</v>
+        <v>39.62677995062788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43213.79166666666</v>
+        <v>43287.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>32.46500153203124</v>
+        <v>26.22827720732788</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43213.83333333334</v>
+        <v>43287.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>21.78248907071504</v>
+        <v>17.30132856033103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43213.875</v>
+        <v>43287.875</v>
       </c>
       <c r="D23" t="n">
-        <v>14.02925476680889</v>
+        <v>11.87079662114581</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43213.91666666666</v>
+        <v>43287.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>8.653250650403479</v>
+        <v>8.821833914043452</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43213.95833333334</v>
+        <v>43287.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.197629252829032</v>
+        <v>5.719752532607146</v>
       </c>
     </row>
   </sheetData>
@@ -709,51 +709,51 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43213</v>
+        <v>43287</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43213.04166666666</v>
+        <v>43287.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43213.08333333334</v>
+        <v>43287.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43213.125</v>
+        <v>43287.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43213.16666666666</v>
+        <v>43287.16666666666</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -763,190 +763,190 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43213.20833333334</v>
+        <v>43287.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43213.25</v>
+        <v>43287.25</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43213.29166666666</v>
+        <v>43287.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43213.33333333334</v>
+        <v>43287.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>510</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43213.375</v>
+        <v>43287.375</v>
       </c>
       <c r="D11" t="n">
-        <v>409</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43213.41666666666</v>
+        <v>43287.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>386</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43213.45833333334</v>
+        <v>43287.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>235</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43213.5</v>
+        <v>43287.5</v>
       </c>
       <c r="D14" t="n">
-        <v>243</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43213.54166666666</v>
+        <v>43287.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>205</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43213.58333333334</v>
+        <v>43287.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>181</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43213.625</v>
+        <v>43287.625</v>
       </c>
       <c r="D17" t="n">
-        <v>181</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43213.66666666666</v>
+        <v>43287.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43213.70833333334</v>
+        <v>43287.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43213.75</v>
+        <v>43287.75</v>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43213.79166666666</v>
+        <v>43287.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43213.83333333334</v>
+        <v>43287.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43213.875</v>
+        <v>43287.875</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43213.91666666666</v>
+        <v>43287.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43213.95833333334</v>
+        <v>43287.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data7.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data7.xlsx
@@ -427,7 +427,7 @@
         <v>43287</v>
       </c>
       <c r="D2" t="n">
-        <v>8.808719658131565</v>
+        <v>4.035860018496905</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43287.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4.935671021155514</v>
+        <v>7.490982937318194</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43287.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>6.087740589343184</v>
+        <v>10.45723082592322</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43287.125</v>
       </c>
       <c r="D5" t="n">
-        <v>7.451962512224583</v>
+        <v>10.01794566638026</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43287.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>6.764057865927597</v>
+        <v>6.458578833651288</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43287.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>3.829314729235108</v>
+        <v>1.88608907687231</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43287.25</v>
       </c>
       <c r="D8" t="n">
-        <v>13.44739993165085</v>
+        <v>14.66002750304358</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43287.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>44.9444834823848</v>
+        <v>46.99837869474407</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43287.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>467.9376654862347</v>
+        <v>470.0490776534519</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43287.375</v>
       </c>
       <c r="D11" t="n">
-        <v>404.8808621197903</v>
+        <v>411.1506640238313</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43287.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>414.2621866516</v>
+        <v>415.3348751028255</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43287.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>225.5693526246086</v>
+        <v>228.4495774412844</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43287.5</v>
       </c>
       <c r="D14" t="n">
-        <v>255.3776830734978</v>
+        <v>254.0153952064689</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43287.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>180.362179753501</v>
+        <v>180.2449233760948</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43287.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>156.5740859007253</v>
+        <v>155.532249033427</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43287.625</v>
       </c>
       <c r="D17" t="n">
-        <v>107.4721550398328</v>
+        <v>107.3073393383308</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43287.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>83.91580646063336</v>
+        <v>82.11557794218699</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43287.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>57.8601636027086</v>
+        <v>56.27562048396714</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43287.75</v>
       </c>
       <c r="D20" t="n">
-        <v>39.62677995062788</v>
+        <v>38.80662151136688</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43287.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>26.22827720732788</v>
+        <v>26.16452970850648</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43287.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>17.30132856033103</v>
+        <v>17.387097151227</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43287.875</v>
       </c>
       <c r="D23" t="n">
-        <v>11.87079662114581</v>
+        <v>11.50142588412928</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43287.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>8.821833914043452</v>
+        <v>7.769147672028978</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43287.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>5.719752532607146</v>
+        <v>9.872136517046783</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data7.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data7.xlsx
@@ -427,7 +427,7 @@
         <v>43287</v>
       </c>
       <c r="D2" t="n">
-        <v>4.035860018496905</v>
+        <v>4.950804159930939</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43287.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>7.490982937318194</v>
+        <v>9.820934933163073</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43287.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>10.45723082592322</v>
+        <v>8.949184705767436</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43287.125</v>
       </c>
       <c r="D5" t="n">
-        <v>10.01794566638026</v>
+        <v>7.414189044193748</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43287.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>6.458578833651288</v>
+        <v>6.449994340130701</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43287.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>1.88608907687231</v>
+        <v>7.632474391788065</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43287.25</v>
       </c>
       <c r="D8" t="n">
-        <v>14.66002750304358</v>
+        <v>13.32460435042148</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43287.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>46.99837869474407</v>
+        <v>48.17471302944919</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43287.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>470.0490776534519</v>
+        <v>464.0852976745582</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43287.375</v>
       </c>
       <c r="D11" t="n">
-        <v>411.1506640238313</v>
+        <v>409.9206045016631</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43287.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>415.3348751028255</v>
+        <v>411.6654282578271</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43287.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>228.4495774412844</v>
+        <v>227.1496289446931</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43287.5</v>
       </c>
       <c r="D14" t="n">
-        <v>254.0153952064689</v>
+        <v>254.9072494354888</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43287.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>180.2449233760948</v>
+        <v>178.2036461816326</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43287.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>155.532249033427</v>
+        <v>145.4929510661775</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43287.625</v>
       </c>
       <c r="D17" t="n">
-        <v>107.3073393383308</v>
+        <v>107.3176590743966</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43287.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>82.11557794218699</v>
+        <v>76.52729108983394</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43287.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>56.27562048396714</v>
+        <v>52.53635252615442</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43287.75</v>
       </c>
       <c r="D20" t="n">
-        <v>38.80662151136688</v>
+        <v>34.46049263363638</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43287.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>26.16452970850648</v>
+        <v>21.54261125237522</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43287.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>17.387097151227</v>
+        <v>12.96059468050476</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43287.875</v>
       </c>
       <c r="D23" t="n">
-        <v>11.50142588412928</v>
+        <v>7.729906696706578</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43287.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>7.769147672028978</v>
+        <v>4.916847907398406</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43287.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>9.872136517046783</v>
+        <v>1.886521694628783</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data7.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data7.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43287</v>
+        <v>43151</v>
       </c>
       <c r="D2" t="n">
-        <v>4.950804159930939</v>
+        <v>6.720017019724423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43287.04166666666</v>
+        <v>43151.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>9.820934933163073</v>
+        <v>-8.252436854210259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43287.08333333334</v>
+        <v>43151.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8.949184705767436</v>
+        <v>-5.855648326968463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43287.125</v>
+        <v>43151.125</v>
       </c>
       <c r="D5" t="n">
-        <v>7.414189044193748</v>
+        <v>-19.3671648435874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43287.16666666666</v>
+        <v>43151.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>6.449994340130701</v>
+        <v>11.83383396876729</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43287.20833333334</v>
+        <v>43151.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>7.632474391788065</v>
+        <v>45.74557473848026</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43287.25</v>
+        <v>43151.25</v>
       </c>
       <c r="D8" t="n">
-        <v>13.32460435042148</v>
+        <v>92.97133072609915</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43287.29166666666</v>
+        <v>43151.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>48.17471302944919</v>
+        <v>252.1684666271431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43287.33333333334</v>
+        <v>43151.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>464.0852976745582</v>
+        <v>415.2851807515019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43287.375</v>
+        <v>43151.375</v>
       </c>
       <c r="D11" t="n">
-        <v>409.9206045016631</v>
+        <v>386.5783367068479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43287.41666666666</v>
+        <v>43151.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>411.6654282578271</v>
+        <v>336.428824687665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43287.45833333334</v>
+        <v>43151.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>227.1496289446931</v>
+        <v>279.3758687197689</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43287.5</v>
+        <v>43151.5</v>
       </c>
       <c r="D14" t="n">
-        <v>254.9072494354888</v>
+        <v>229.8291916614527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43287.54166666666</v>
+        <v>43151.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>178.2036461816326</v>
+        <v>180.9661745448969</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43287.58333333334</v>
+        <v>43151.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>145.4929510661775</v>
+        <v>143.8091181537677</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43287.625</v>
+        <v>43151.625</v>
       </c>
       <c r="D17" t="n">
-        <v>107.3176590743966</v>
+        <v>115.0374125877445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43287.66666666666</v>
+        <v>43151.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>76.52729108983394</v>
+        <v>94.1467331705004</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43287.70833333334</v>
+        <v>43151.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>52.53635252615442</v>
+        <v>79.18934832162725</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43287.75</v>
+        <v>43151.75</v>
       </c>
       <c r="D20" t="n">
-        <v>34.46049263363638</v>
+        <v>68.44873430260458</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43287.79166666666</v>
+        <v>43151.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>21.54261125237522</v>
+        <v>60.63521368818104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43287.83333333334</v>
+        <v>43151.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>12.96059468050476</v>
+        <v>54.84419660183278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43287.875</v>
+        <v>43151.875</v>
       </c>
       <c r="D23" t="n">
-        <v>7.729906696706578</v>
+        <v>50.45666968155339</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43287.91666666666</v>
+        <v>43151.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>4.916847907398406</v>
+        <v>47.05064475681593</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43287.95833333334</v>
+        <v>43151.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>1.886521694628783</v>
+        <v>26.33128074044011</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43287</v>
+        <v>43151</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43287.04166666666</v>
+        <v>43151.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43287.08333333334</v>
+        <v>43151.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43287.125</v>
+        <v>43151.125</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43287.16666666666</v>
+        <v>43151.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43287.20833333334</v>
+        <v>43151.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43287.25</v>
+        <v>43151.25</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43287.29166666666</v>
+        <v>43151.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43287.33333333334</v>
+        <v>43151.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>243</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43287.375</v>
+        <v>43151.375</v>
       </c>
       <c r="D11" t="n">
-        <v>252</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43287.41666666666</v>
+        <v>43151.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>208</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43287.45833333334</v>
+        <v>43151.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>112</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43287.5</v>
+        <v>43151.5</v>
       </c>
       <c r="D14" t="n">
-        <v>106</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43287.54166666666</v>
+        <v>43151.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>96</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43287.58333333334</v>
+        <v>43151.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43287.625</v>
+        <v>43151.625</v>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43287.66666666666</v>
+        <v>43151.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43287.70833333334</v>
+        <v>43151.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43287.75</v>
+        <v>43151.75</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43287.79166666666</v>
+        <v>43151.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43287.83333333334</v>
+        <v>43151.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43287.875</v>
+        <v>43151.875</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43287.91666666666</v>
+        <v>43151.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43287.95833333334</v>
+        <v>43151.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
